--- a/data_selection/result/地区生产总值-江门-逻辑表-解释变量V1-先行指标V1.xlsx
+++ b/data_selection/result/地区生产总值-江门-逻辑表-解释变量V1-先行指标V1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,10 +471,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2016</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -498,10 +496,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2016</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -510,13 +506,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工业销售产值</t>
+          <t>家具产品产量</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -525,10 +521,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2015</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -537,13 +531,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>营业收入</t>
+          <t>合同利用外资</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -552,10 +546,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A5" t="n">
+        <v>2015</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -564,13 +556,13 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>出口交货值</t>
+          <t>营业收入</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -579,10 +571,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A6" t="n">
+        <v>2016</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -591,13 +581,13 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>全社会用电量</t>
+          <t>江门:成交土地数量:当周值:月:累计值:同比</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -606,10 +596,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A7" t="n">
+        <v>2016</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -618,13 +606,13 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工业用电量</t>
+          <t>原电池及原电池组（非扣式）产品产量</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -633,10 +621,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A8" t="n">
+        <v>2016</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -645,13 +631,13 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拥堵延时指数:江门:月:同比</t>
+          <t>工业投资</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -660,10 +646,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A9" t="n">
+        <v>2016</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -672,13 +656,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>加工贸易出口</t>
+          <t>第二产业投资</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -687,10 +671,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A10" t="n">
+        <v>2016</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -699,13 +681,13 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>货运量</t>
+          <t>不锈钢日用制品产品产量</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -714,10 +696,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A11" t="n">
+        <v>2016</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -726,13 +706,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>全员劳动生产率</t>
+          <t>水泥产品产量</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -741,10 +721,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A12" t="n">
+        <v>2016</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -753,13 +731,13 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>出厂价:普通水泥:42.5级散装:江门海螺:月:同比</t>
+          <t>一般贸易出口</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -768,10 +746,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A13" t="n">
+        <v>2016</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -780,13 +756,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>货运周转量</t>
+          <t>加工贸易出口</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -795,10 +771,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A14" t="n">
+        <v>2016</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -807,13 +781,13 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>工业投资</t>
+          <t>客运量</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -822,10 +796,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A15" t="n">
+        <v>2016</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -834,13 +806,13 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>轻工业出厂价格指数</t>
+          <t>货运量</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -849,10 +821,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A16" t="n">
+        <v>2016</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -861,13 +831,13 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>工业用水量</t>
+          <t>江门:成交土地规划建筑面积:当周值:月:累计值:同比</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -876,10 +846,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A17" t="n">
+        <v>2016</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -888,13 +856,13 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>价格:普通水泥:42.5级参考:广东:江门:同比</t>
+          <t>商品房施工面积</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -903,10 +871,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A18" t="n">
+        <v>2016</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -915,13 +881,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>家具产品产量</t>
+          <t>邮政业务总量</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -930,10 +896,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A19" t="n">
+        <v>2016</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -942,13 +906,13 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>期末移动电话用户数</t>
+          <t>平均价:鸭苗:广东:江门:月:同比</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -957,10 +921,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A20" t="n">
+        <v>2016</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -969,13 +931,13 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>消费品价格指数</t>
+          <t>住宅价格指数:江门:同比</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -984,10 +946,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A21" t="n">
+        <v>2016</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -996,13 +956,13 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>家具产品产量</t>
+          <t>工业销售产值</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1011,10 +971,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A22" t="n">
+        <v>2016</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1023,13 +981,13 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>合同利用外资</t>
+          <t>出口交货值</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1038,10 +996,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A23" t="n">
+        <v>2016</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1050,13 +1006,13 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>营业收入</t>
+          <t>全社会用电量</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1065,10 +1021,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A24" t="n">
+        <v>2016</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1077,13 +1031,13 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>江门:成交土地数量:当周值:月:累计值:同比</t>
+          <t>工业用电量</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1092,10 +1046,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A25" t="n">
+        <v>2017</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1104,13 +1056,13 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>原电池及原电池组（非扣式）产品产量</t>
+          <t>拥堵延时指数:江门:月:同比</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1119,10 +1071,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A26" t="n">
+        <v>2015</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1131,13 +1081,13 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>工业投资</t>
+          <t>全员劳动生产率</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1146,10 +1096,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A27" t="n">
+        <v>2017</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1158,13 +1106,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>第二产业投资</t>
+          <t>出厂价:普通水泥:42.5级散装:江门海螺:月:同比</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1173,10 +1121,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A28" t="n">
+        <v>2016</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1185,13 +1131,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>不锈钢日用制品产品产量</t>
+          <t>货运周转量</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1200,10 +1146,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A29" t="n">
+        <v>2016</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1212,13 +1156,13 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>水泥产品产量</t>
+          <t>轻工业出厂价格指数</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1227,10 +1171,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A30" t="n">
+        <v>2016</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1239,13 +1181,13 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>一般贸易出口</t>
+          <t>工业用水量</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1254,10 +1196,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A31" t="n">
+        <v>2017</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1266,13 +1206,13 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>加工贸易出口</t>
+          <t>价格:普通水泥:42.5级参考:广东:江门:同比</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1281,10 +1221,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A32" t="n">
+        <v>2016</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1293,13 +1231,13 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>客运量</t>
+          <t>期末移动电话用户数</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1308,10 +1246,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A33" t="n">
+        <v>2016</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1320,150 +1256,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>货运量</t>
+          <t>消费品价格指数</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>X值</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>江门:成交土地规划建筑面积:当周值:月:累计值:同比</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="n">
-        <v>4</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>X值</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>商品房施工面积</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>X值</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>邮政业务总量</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>X值</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>平均价:鸭苗:广东:江门:月:同比</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="n">
-        <v>2</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>X值</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>住宅价格指数:江门:同比</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="inlineStr">
         <is>
           <t>M</t>
         </is>
